--- a/forecast_summary_B0C4CB8G8D.xlsx
+++ b/forecast_summary_B0C4CB8G8D.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>40.43351568913489</v>
       </c>
       <c r="D2" t="n">
-        <v>54.64804408707595</v>
+        <v>54.97273839262878</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -511,6 +516,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>59.04575142420956</v>
       </c>
       <c r="D3" t="n">
-        <v>74.83954361612331</v>
+        <v>73.79926248886146</v>
       </c>
       <c r="E3" t="n">
         <v>34</v>
@@ -547,6 +555,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>74.85737251135822</v>
       </c>
       <c r="D4" t="n">
-        <v>89.11187747960165</v>
+        <v>90.09572569730449</v>
       </c>
       <c r="E4" t="n">
         <v>35</v>
@@ -583,6 +594,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="n">
         <v>72.01278835486247</v>
       </c>
       <c r="D5" t="n">
-        <v>86.88951718722248</v>
+        <v>85.95237927033295</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
@@ -619,6 +633,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>51.84678685355391</v>
       </c>
       <c r="D6" t="n">
-        <v>66.60688816462954</v>
+        <v>66.91352767777155</v>
       </c>
       <c r="E6" t="n">
         <v>25</v>
@@ -655,6 +672,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>31.47875016877938</v>
       </c>
       <c r="D7" t="n">
-        <v>46.75726429452354</v>
+        <v>46.34043596510924</v>
       </c>
       <c r="E7" t="n">
         <v>27</v>
@@ -691,6 +711,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>25.55979914332656</v>
       </c>
       <c r="D8" t="n">
-        <v>39.96187560399235</v>
+        <v>39.64090283170334</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
@@ -727,6 +750,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>32.61408704752912</v>
       </c>
       <c r="D9" t="n">
-        <v>47.50282885592947</v>
+        <v>47.62404872402869</v>
       </c>
       <c r="E9" t="n">
         <v>26</v>
@@ -763,6 +789,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>40.19440353607008</v>
       </c>
       <c r="D10" t="n">
-        <v>56.06931717115009</v>
+        <v>54.74345323867863</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
@@ -799,6 +828,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>40.21487591647932</v>
       </c>
       <c r="D11" t="n">
-        <v>55.11858727381319</v>
+        <v>54.27456531496772</v>
       </c>
       <c r="E11" t="n">
         <v>25</v>
@@ -835,6 +867,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>35.73485374063883</v>
       </c>
       <c r="D12" t="n">
-        <v>49.73791383452692</v>
+        <v>50.31646438265886</v>
       </c>
       <c r="E12" t="n">
         <v>26</v>
@@ -871,6 +906,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>33.5745958353866</v>
       </c>
       <c r="D13" t="n">
-        <v>47.68338927828995</v>
+        <v>49.51510611260636</v>
       </c>
       <c r="E13" t="n">
         <v>25</v>
@@ -907,6 +945,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>34.78797121800319</v>
       </c>
       <c r="D14" t="n">
-        <v>48.84605319587654</v>
+        <v>48.67112689104318</v>
       </c>
       <c r="E14" t="n">
         <v>24</v>
@@ -943,6 +984,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>35.13617874515798</v>
       </c>
       <c r="D15" t="n">
-        <v>49.73326263471399</v>
+        <v>49.35652968342787</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>32.62508341155561</v>
       </c>
       <c r="D16" t="n">
-        <v>47.06683247515363</v>
+        <v>47.8077757344909</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>30.26862486929644</v>
       </c>
       <c r="D17" t="n">
-        <v>45.59418892374784</v>
+        <v>45.27001356545772</v>
       </c>
       <c r="E17" t="n">
         <v>23</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>30.59185788661431</v>
       </c>
       <c r="D18" t="n">
-        <v>44.3838816259728</v>
+        <v>44.27667855369784</v>
       </c>
       <c r="E18" t="n">
         <v>21</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>30.94440540328195</v>
       </c>
       <c r="D19" t="n">
-        <v>46.22550328579684</v>
+        <v>45.93510901867662</v>
       </c>
       <c r="E19" t="n">
         <v>22</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>27.39537181899608</v>
       </c>
       <c r="D20" t="n">
-        <v>42.17383041597261</v>
+        <v>42.21769094605867</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>21.86849384839935</v>
       </c>
       <c r="D21" t="n">
-        <v>36.71277262311381</v>
+        <v>35.47855508146532</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>H610I</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>694</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>252</t>
         </is>
       </c>
     </row>
